--- a/datastatic/datasets/online/SDG13_germanwatch_emissiondevelopment.xlsx
+++ b/datastatic/datasets/online/SDG13_germanwatch_emissiondevelopment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>original_title</t>
   </si>
@@ -52,25 +52,25 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t>To allow the CCPI to not only rate overall climate protection performance, but also to analyse good practice or shortcomings in more detail, we chose to measure changes in CO2 emissions from the energy, industry, transport and residential sectors separately. This categorisation corresponds also to the IPCC guidelines for energy-related emissions inventories. The weighting of each sector is set roughly according to its world-wide relevance to climate change.</t>
+    <t>To allow the CCPI (Climate Change Performance Index) to not only rate overall climate protection performance, but also to analyse good practice or shortcomings in more detail, we chose to measure changes in CO2 emissions from the energy, industry, transport and residential sectors separately. This categorisation corresponds also to the IPCC (Intergovernmental Panel on climate Change - UN) guidelines for energy-related emissions inventories. The weighting of each sector is set roughly according to its world-wide relevance to climate change.</t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>
   </si>
   <si>
-    <t>Composite Indicator</t>
+    <t>points (Composite Indicator)</t>
   </si>
   <si>
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t>Um den Emissionstrend zu beschreiben, werden bei diesem Indikator die CO2 Veränderungen im Energie-, Industrie-, Transport- und Gebäudesektor getrennt angegeben. Dies entspricht den IPCC Richtlinien für die Darstellung energiebedingter Emissionen. Die Gewichtung der Sektoren ist abhängig davon, wie hoch ihr Anteil an den weltweiten Emissionen ist.</t>
+    <t>Um den Emissionstrend zu beschreiben, werden bei diesem Indikator die CO2 Veränderungen im Energie-, Industrie-, Transport- und Gebäudesektor getrennt angegeben. Dies entspricht den UN-Weltklimarat Richtlinien für die Darstellung  energiebedingter Emissionen. Die Gewichtung der Sektoren ist abhängig davon, wie hoch ihr Anteil an den weltweiten Emissionen ist.</t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
-    <t>Zusammengesetzer Indikator</t>
+    <t>Punkte (Zusammengesetzer Indikator)</t>
   </si>
   <si>
     <t>target</t>
@@ -88,15 +88,21 @@
     <t>target$rating</t>
   </si>
   <si>
-    <t>100; 66,77-77,66; 59,12-66,47; 50,40-58,88;15,95-49,97</t>
+    <t>100, 77.66, 66.47, 58.88</t>
   </si>
   <si>
     <t>target$explanation$de</t>
   </si>
   <si>
+    <t xml:space="preserve">Theoretisch ist es für ein Land möglich, sowohl in den einzelnen Kategorien, als auch im Gesamtergebnis 100 Punkte zu erhalten. Dabei ist jedoch zu beachten, dass es sich nur um relative Werte handelt und nicht zwangsweise die absolut beste Leistung im Klimaschutz abbildet. </t>
+  </si>
+  <si>
     <t>target$explanation$en</t>
   </si>
   <si>
+    <t>Important for the interpretation is the following: 100 points are possible in principle, but for each partial indicator, and for the overall score, this still only means the best relative performance, which is not necessarily the optimal climate protection effort.</t>
+  </si>
+  <si>
     <t>target$target_reference</t>
   </si>
   <si>
@@ -115,7 +121,7 @@
     <t>target$ministerial_responsibility</t>
   </si>
   <si>
-    <t>BMUB, BMWi, BMVI</t>
+    <t>BMUB</t>
   </si>
   <si>
     <t>target$other_relevant_SDGs</t>
@@ -172,7 +178,7 @@
     <t>source$license</t>
   </si>
   <si>
-    <t>???</t>
+    <t>CC BY-NC-SA 4.0</t>
   </si>
   <si>
     <t>countries</t>
@@ -299,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -310,12 +316,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +352,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor rgb="FFFF33CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -364,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -386,14 +402,27 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -406,7 +435,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -418,6 +447,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="41.86"/>
+    <col customWidth="1" min="2" max="2" width="72.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,7 +512,7 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -498,7 +528,7 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -528,7 +558,9 @@
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
@@ -542,49 +574,53 @@
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="8">
+        <v>34</v>
+      </c>
+      <c r="B21" s="12">
         <v>13.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4">
         <v>7.0</v>
@@ -592,27 +628,27 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="B25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
         <v>2014.0</v>
@@ -620,81 +656,81 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
-        <v>55</v>
+      <c r="A37" s="13"/>
+      <c r="B37" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4">
         <v>44.61</v>
@@ -702,7 +738,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="4">
         <v>57.28</v>
@@ -710,7 +746,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="4">
         <v>61.95</v>
@@ -718,7 +754,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="4">
         <v>50.4</v>
@@ -726,7 +762,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" s="4">
         <v>38.75</v>
@@ -734,13 +770,13 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" s="4">
         <v>36.5</v>
@@ -748,7 +784,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" s="4">
         <v>64.34</v>
@@ -756,7 +792,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" s="4">
         <v>74.07</v>
@@ -764,7 +800,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="4">
         <v>49.5</v>
@@ -772,7 +808,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" s="4">
         <v>60.34</v>
@@ -780,7 +816,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="4">
         <v>64.69</v>
@@ -788,7 +824,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4">
         <v>52.33</v>
@@ -796,7 +832,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4">
         <v>75.27</v>
@@ -804,7 +840,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52" s="4">
         <v>70.27</v>
@@ -812,7 +848,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" s="4">
         <v>54.72</v>
@@ -820,7 +856,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="4">
         <v>71.84</v>
@@ -828,13 +864,13 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4">
         <v>69.06</v>
@@ -842,7 +878,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4">
         <v>43.25</v>
@@ -850,7 +886,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4">
         <v>30.44</v>
@@ -858,7 +894,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="4">
         <v>64.28</v>
@@ -866,7 +902,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4">
         <v>62.41</v>
@@ -874,7 +910,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="4">
         <v>54.96</v>
@@ -882,7 +918,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="4">
         <v>56.3</v>
@@ -890,7 +926,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="4">
         <v>47.46</v>
@@ -898,7 +934,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4">
         <v>56.75</v>
@@ -906,7 +942,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="4">
         <v>63.89</v>
@@ -914,7 +950,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="4">
         <v>64.91</v>
@@ -922,7 +958,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="4">
         <v>66.47</v>
@@ -930,7 +966,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="4">
         <v>55.27</v>
@@ -938,7 +974,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="4">
         <v>69.52</v>
@@ -946,7 +982,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="4">
         <v>64.97</v>
@@ -954,7 +990,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="4">
         <v>60.48</v>
@@ -962,7 +998,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4">
         <v>59.12</v>
@@ -970,7 +1006,7 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="4">
         <v>67.2</v>
@@ -978,7 +1014,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="4">
         <v>48.17</v>
@@ -986,7 +1022,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="4">
         <v>48.03</v>
